--- a/physics/svingninger.xlsx
+++ b/physics/svingninger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktsdk-my.sharepoint.com/personal/nick473a_edu_nextkbh_dk/Documents/node projects/SOP-project/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4ABAF3-42B0-445E-A5C9-C767FDD1BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3E4ABAF3-42B0-445E-A5C9-C767FDD1BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E69DD2-7B39-47B4-98AC-0DEC6BACB7D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9FADAA4-B473-4567-AA99-6AFDDA423BF7}"/>
   </bookViews>
@@ -412,10 +412,14 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">

--- a/physics/svingninger.xlsx
+++ b/physics/svingninger.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{3E4ABAF3-42B0-445E-A5C9-C767FDD1BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E69DD2-7B39-47B4-98AC-0DEC6BACB7D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9FADAA4-B473-4567-AA99-6AFDDA423BF7}"/>
+    <workbookView xWindow="-975" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{F9FADAA4-B473-4567-AA99-6AFDDA423BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/physics/svingninger.xlsx
+++ b/physics/svingninger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktsdk-my.sharepoint.com/personal/nick473a_edu_nextkbh_dk/Documents/node projects/SOP-project/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3E4ABAF3-42B0-445E-A5C9-C767FDD1BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E69DD2-7B39-47B4-98AC-0DEC6BACB7D8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3E4ABAF3-42B0-445E-A5C9-C767FDD1BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D70A66-335C-4BBB-9CFB-CAA87283B117}"/>
   <bookViews>
-    <workbookView xWindow="-975" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{F9FADAA4-B473-4567-AA99-6AFDDA423BF7}"/>
+    <workbookView xWindow="38280" yWindow="7605" windowWidth="29040" windowHeight="15840" xr2:uid="{F9FADAA4-B473-4567-AA99-6AFDDA423BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>1/12*0.128*0.6^2</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>180 grader kun stang</t>
+  </si>
+  <si>
+    <t>K (kraft N*m)</t>
   </si>
 </sst>
 </file>
@@ -412,11 +412,12 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -426,24 +427,24 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
